--- a/output/1Y_P63_KFSDIV.xlsx
+++ b/output/1Y_P63_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.9657</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.3568</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E3" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="F3" s="1">
-        <v>748.6823000000001</v>
+        <v>747.1831</v>
       </c>
       <c r="H3" s="1">
-        <v>10301.642</v>
+        <v>10260.474</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10301.642</v>
+        <v>10260.474</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0302</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.2487</v>
       </c>
       <c r="C4" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D4" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E4" s="1">
-        <v>1519.948</v>
+        <v>1516.9053</v>
       </c>
       <c r="F4" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="H4" s="1">
-        <v>20137.3356</v>
+        <v>20056.8256</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20137.3356</v>
+        <v>20056.8256</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1583</v>
+        <v>13.1847</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0081</v>
+        <v>-0.0101</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>13.3991</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E5" s="1">
-        <v>2274.7391</v>
+        <v>2270.1896</v>
       </c>
       <c r="F5" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="H5" s="1">
-        <v>30479.4564</v>
+        <v>30357.657</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30479.4564</v>
+        <v>30357.657</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.1883</v>
+        <v>13.2148</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>547.1813</v>
+        <v>546.0859</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9452.8187</v>
+        <v>-9453.9141</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0114</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.5985</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E6" s="1">
-        <v>3021.0579</v>
+        <v>3015.0187</v>
       </c>
       <c r="F6" s="1">
-        <v>740.405</v>
+        <v>738.917</v>
       </c>
       <c r="H6" s="1">
-        <v>41081.8553</v>
+        <v>40917.7229</v>
       </c>
       <c r="I6" s="1">
-        <v>547.1813</v>
+        <v>546.0859</v>
       </c>
       <c r="J6" s="1">
-        <v>41629.0366</v>
+        <v>41463.8088</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10068.3977</v>
+        <v>-10068.2607</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0284</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.6955</v>
       </c>
       <c r="C7" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D7" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E7" s="1">
-        <v>3761.4629</v>
+        <v>3753.9356</v>
       </c>
       <c r="F7" s="1">
-        <v>735.1609999999999</v>
+        <v>733.6832000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>51515.1149</v>
+        <v>51309.1675</v>
       </c>
       <c r="I7" s="1">
-        <v>478.7836</v>
+        <v>477.8252</v>
       </c>
       <c r="J7" s="1">
-        <v>51993.8985</v>
+        <v>51786.9927</v>
       </c>
       <c r="K7" s="1">
-        <v>50068.3977</v>
+        <v>50068.2607</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3109</v>
+        <v>13.3375</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10068.3977</v>
+        <v>-10068.2607</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0071</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>13.3398</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E8" s="1">
-        <v>4496.6239</v>
+        <v>4487.6188</v>
       </c>
       <c r="F8" s="1">
-        <v>754.7637999999999</v>
+        <v>753.2459</v>
       </c>
       <c r="H8" s="1">
-        <v>59984.0634</v>
+        <v>59744.1177</v>
       </c>
       <c r="I8" s="1">
-        <v>410.386</v>
+        <v>409.5644</v>
       </c>
       <c r="J8" s="1">
-        <v>60394.4494</v>
+        <v>60153.6822</v>
       </c>
       <c r="K8" s="1">
-        <v>60136.7953</v>
+        <v>60136.5215</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3738</v>
+        <v>13.4005</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1015.595</v>
+        <v>1013.5626</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9052.8027</v>
+        <v>-9054.6981</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0258</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>12.8469</v>
       </c>
       <c r="C9" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D9" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E9" s="1">
-        <v>5251.3877</v>
+        <v>5240.8646</v>
       </c>
       <c r="F9" s="1">
-        <v>799.5327</v>
+        <v>797.8942</v>
       </c>
       <c r="H9" s="1">
-        <v>67464.0521</v>
+        <v>67194.1738</v>
       </c>
       <c r="I9" s="1">
-        <v>1357.5833</v>
+        <v>1354.8663</v>
       </c>
       <c r="J9" s="1">
-        <v>68821.6354</v>
+        <v>68549.0402</v>
       </c>
       <c r="K9" s="1">
-        <v>70205.193</v>
+        <v>70204.7822</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3689</v>
+        <v>13.3956</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10271.5167</v>
+        <v>-10270.9733</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0223</v>
+        <v>-0.0229</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.129</v>
       </c>
       <c r="C10" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D10" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E10" s="1">
-        <v>6050.9204</v>
+        <v>6038.7589</v>
       </c>
       <c r="F10" s="1">
-        <v>782.3533</v>
+        <v>780.7479</v>
       </c>
       <c r="H10" s="1">
-        <v>79442.5334</v>
+        <v>79124.046</v>
       </c>
       <c r="I10" s="1">
-        <v>1086.0666</v>
+        <v>1083.8931</v>
       </c>
       <c r="J10" s="1">
-        <v>80528.60000000001</v>
+        <v>80207.939</v>
       </c>
       <c r="K10" s="1">
-        <v>80476.7096</v>
+        <v>80475.7555</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2999</v>
+        <v>13.3265</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10271.5167</v>
+        <v>-10270.9733</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0217</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>12.716</v>
       </c>
       <c r="C11" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D11" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E11" s="1">
-        <v>6833.2737</v>
+        <v>6819.5068</v>
       </c>
       <c r="F11" s="1">
-        <v>807.7632</v>
+        <v>806.1039</v>
       </c>
       <c r="H11" s="1">
-        <v>86891.908</v>
+        <v>86543.63310000001</v>
       </c>
       <c r="I11" s="1">
-        <v>814.55</v>
+        <v>812.9198</v>
       </c>
       <c r="J11" s="1">
-        <v>87706.458</v>
+        <v>87356.5529</v>
       </c>
       <c r="K11" s="1">
-        <v>90748.22629999999</v>
+        <v>90746.72870000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2803</v>
+        <v>13.3069</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1633.7485</v>
+        <v>1630.4649</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8637.7682</v>
+        <v>-8640.508400000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0312</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>12.4613</v>
       </c>
       <c r="C12" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D12" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E12" s="1">
-        <v>7641.0369</v>
+        <v>7625.6107</v>
       </c>
       <c r="F12" s="1">
-        <v>889.8262</v>
+        <v>887.8696</v>
       </c>
       <c r="H12" s="1">
-        <v>95217.25260000001</v>
+        <v>94835.14539999999</v>
       </c>
       <c r="I12" s="1">
-        <v>2176.7818</v>
+        <v>2172.4114</v>
       </c>
       <c r="J12" s="1">
-        <v>97394.0344</v>
+        <v>97007.5569</v>
       </c>
       <c r="K12" s="1">
-        <v>101019.743</v>
+        <v>101017.702</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2207</v>
+        <v>13.2472</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11088.3909</v>
+        <v>-11086.2057</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0032</v>
+        <v>-0.0036</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>12.6545</v>
       </c>
       <c r="C13" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D13" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E13" s="1">
-        <v>8530.862999999999</v>
+        <v>8513.480299999999</v>
       </c>
       <c r="F13" s="1">
-        <v>876.2409</v>
+        <v>874.3133</v>
       </c>
       <c r="H13" s="1">
-        <v>107953.8063</v>
+        <v>107518.4455</v>
       </c>
       <c r="I13" s="1">
-        <v>1088.3909</v>
+        <v>1086.2057</v>
       </c>
       <c r="J13" s="1">
-        <v>109042.1972</v>
+        <v>108604.6512</v>
       </c>
       <c r="K13" s="1">
-        <v>112108.1339</v>
+        <v>112103.9077</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1415</v>
+        <v>13.1678</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11088.3909</v>
+        <v>-11086.2057</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0153</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>12.2345</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E14" s="1">
-        <v>9407.103999999999</v>
+        <v>9387.793600000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9407.103999999999</v>
+        <v>-9387.793600000001</v>
       </c>
       <c r="H14" s="1">
-        <v>115091.2135</v>
+        <v>114624.9604</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>115091.2135</v>
+        <v>114624.9604</v>
       </c>
       <c r="K14" s="1">
-        <v>123196.5248</v>
+        <v>123190.1134</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0961</v>
+        <v>13.1224</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2303.333</v>
+        <v>2298.6397</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117394.5465</v>
+        <v>116923.6001</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.9657</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.3568</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E3" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="F3" s="1">
-        <v>726.0989</v>
+        <v>730.6416</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10301.642</v>
+        <v>10260.474</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10301.642</v>
+        <v>10260.474</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9698.358</v>
+        <v>-9778.615299999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0302</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.2487</v>
       </c>
       <c r="C4" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D4" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E4" s="1">
-        <v>1497.3646</v>
+        <v>1500.3638</v>
       </c>
       <c r="F4" s="1">
-        <v>767.0085</v>
+        <v>768.5475</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19838.1349</v>
+        <v>19838.1107</v>
       </c>
       <c r="I4" s="1">
-        <v>301.642</v>
+        <v>221.3847</v>
       </c>
       <c r="J4" s="1">
-        <v>20139.7769</v>
+        <v>20059.4954</v>
       </c>
       <c r="K4" s="1">
-        <v>19698.358</v>
+        <v>19778.6153</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1554</v>
+        <v>13.1825</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10161.8651</v>
+        <v>-10202.6223</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.008</v>
+        <v>-0.009900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>13.3991</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E5" s="1">
-        <v>2264.3731</v>
+        <v>2268.9114</v>
       </c>
       <c r="F5" s="1">
-        <v>720.902</v>
+        <v>722.3467000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30340.5617</v>
+        <v>30340.5636</v>
       </c>
       <c r="I5" s="1">
-        <v>139.7769</v>
+        <v>18.7624</v>
       </c>
       <c r="J5" s="1">
-        <v>30480.3386</v>
+        <v>30359.326</v>
       </c>
       <c r="K5" s="1">
-        <v>29860.2231</v>
+        <v>29981.2376</v>
       </c>
       <c r="L5" s="1">
-        <v>13.187</v>
+        <v>13.2139</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>539.0513</v>
+        <v>540.131</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9120.387000000001</v>
+        <v>-9158.0232</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0113</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.5985</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E6" s="1">
-        <v>2985.2751</v>
+        <v>2991.258</v>
       </c>
       <c r="F6" s="1">
-        <v>691.601</v>
+        <v>692.9874</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40595.2639</v>
+        <v>40595.2604</v>
       </c>
       <c r="I6" s="1">
-        <v>1019.3899</v>
+        <v>860.7392</v>
       </c>
       <c r="J6" s="1">
-        <v>41614.6538</v>
+        <v>41455.9995</v>
       </c>
       <c r="K6" s="1">
-        <v>39519.6614</v>
+        <v>39679.3918</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2382</v>
+        <v>13.2651</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9404.7361</v>
+        <v>-9442.438200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.028</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.6955</v>
       </c>
       <c r="C7" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D7" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E7" s="1">
-        <v>3676.8761</v>
+        <v>3684.2454</v>
       </c>
       <c r="F7" s="1">
-        <v>704.1249</v>
+        <v>705.5381</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50356.657</v>
+        <v>50356.635</v>
       </c>
       <c r="I7" s="1">
-        <v>1614.6538</v>
+        <v>1418.301</v>
       </c>
       <c r="J7" s="1">
-        <v>51971.3107</v>
+        <v>51774.936</v>
       </c>
       <c r="K7" s="1">
-        <v>48924.3975</v>
+        <v>49121.83</v>
       </c>
       <c r="L7" s="1">
-        <v>13.306</v>
+        <v>13.3329</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9643.343000000001</v>
+        <v>-9682.0285</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0069</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>13.3398</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E8" s="1">
-        <v>4381.0011</v>
+        <v>4389.7835</v>
       </c>
       <c r="F8" s="1">
-        <v>866.4539</v>
+        <v>868.1955</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58441.6779</v>
+        <v>58441.6269</v>
       </c>
       <c r="I8" s="1">
-        <v>1971.3107</v>
+        <v>1736.2725</v>
       </c>
       <c r="J8" s="1">
-        <v>60412.9887</v>
+        <v>60177.8994</v>
       </c>
       <c r="K8" s="1">
-        <v>58567.7405</v>
+        <v>58803.8585</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3686</v>
+        <v>13.3956</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>992.7566</v>
+        <v>994.7463</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10565.5655</v>
+        <v>-10609.9885</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0251</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>12.8469</v>
       </c>
       <c r="C9" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D9" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E9" s="1">
-        <v>5247.455</v>
+        <v>5257.979</v>
       </c>
       <c r="F9" s="1">
-        <v>887.8208</v>
+        <v>864.3385</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>67413.5294</v>
+        <v>67413.6001</v>
       </c>
       <c r="I9" s="1">
-        <v>1405.7452</v>
+        <v>1126.284</v>
       </c>
       <c r="J9" s="1">
-        <v>68819.27469999999</v>
+        <v>68539.8841</v>
       </c>
       <c r="K9" s="1">
-        <v>70126.0626</v>
+        <v>70408.59329999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3638</v>
+        <v>13.3908</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11405.7452</v>
+        <v>-11126.284</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0226</v>
+        <v>-0.0233</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.129</v>
       </c>
       <c r="C10" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D10" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E10" s="1">
-        <v>6135.2758</v>
+        <v>6122.3175</v>
       </c>
       <c r="F10" s="1">
-        <v>719.7779</v>
+        <v>746.4958</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80550.03599999999</v>
+        <v>80218.8895</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80550.03599999999</v>
+        <v>80218.8895</v>
       </c>
       <c r="K10" s="1">
-        <v>81531.8078</v>
+        <v>81534.8772</v>
       </c>
       <c r="L10" s="1">
-        <v>13.289</v>
+        <v>13.3176</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9449.964</v>
+        <v>-9820.376200000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.022</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>12.716</v>
       </c>
       <c r="C11" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D11" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E11" s="1">
-        <v>6855.0537</v>
+        <v>6868.8133</v>
       </c>
       <c r="F11" s="1">
-        <v>829.6662</v>
+        <v>798.9345</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87168.8628</v>
+        <v>87169.36199999999</v>
       </c>
       <c r="I11" s="1">
-        <v>550.0359999999999</v>
+        <v>179.6238</v>
       </c>
       <c r="J11" s="1">
-        <v>87718.8988</v>
+        <v>87348.9859</v>
       </c>
       <c r="K11" s="1">
-        <v>90981.77190000001</v>
+        <v>91355.2534</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2722</v>
+        <v>13.3</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1656.5245</v>
+        <v>1653.0257</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8893.511500000001</v>
+        <v>-8526.598099999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0313</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>12.4613</v>
       </c>
       <c r="C12" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D12" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E12" s="1">
-        <v>7684.7199</v>
+        <v>7667.7478</v>
       </c>
       <c r="F12" s="1">
-        <v>935.418</v>
+        <v>933.2649</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>95761.60060000001</v>
+        <v>95359.1786</v>
       </c>
       <c r="I12" s="1">
-        <v>1656.5245</v>
+        <v>1653.0257</v>
       </c>
       <c r="J12" s="1">
-        <v>97418.1251</v>
+        <v>97012.2043</v>
       </c>
       <c r="K12" s="1">
-        <v>101531.8078</v>
+        <v>101534.8772</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2122</v>
+        <v>13.2418</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11656.5245</v>
+        <v>-11653.0257</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0031</v>
+        <v>-0.0035</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>12.6545</v>
       </c>
       <c r="C13" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D13" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E13" s="1">
-        <v>8620.138000000001</v>
+        <v>8601.012699999999</v>
       </c>
       <c r="F13" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>109083.5357</v>
+        <v>108623.9097</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>109083.5357</v>
+        <v>108623.9097</v>
       </c>
       <c r="K13" s="1">
-        <v>113188.3323</v>
+        <v>113187.903</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1307</v>
+        <v>13.1598</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0155</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>12.2345</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E14" s="1">
-        <v>9410.370699999999</v>
+        <v>9389.6625</v>
       </c>
       <c r="F14" s="1">
-        <v>-9410.370699999999</v>
+        <v>-9389.6625</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115131.18</v>
+        <v>114647.7786</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>115131.18</v>
+        <v>114647.7786</v>
       </c>
       <c r="K14" s="1">
-        <v>123188.3323</v>
+        <v>123187.903</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0907</v>
+        <v>13.1195</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2327.4372</v>
+        <v>2322.2734</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117458.6173</v>
+        <v>116970.052</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0332</v>
+        <v>-0.0335</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.9657</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.3568</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E3" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="F3" s="1">
-        <v>729.8423</v>
+        <v>734.3925</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10301.642</v>
+        <v>10260.474</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10301.642</v>
+        <v>10260.474</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9748.358</v>
+        <v>-9828.816000000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0302</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.2487</v>
       </c>
       <c r="C4" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D4" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E4" s="1">
-        <v>1501.108</v>
+        <v>1504.1147</v>
       </c>
       <c r="F4" s="1">
-        <v>773.7848</v>
+        <v>766.1793</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19887.7302</v>
+        <v>19887.706</v>
       </c>
       <c r="I4" s="1">
-        <v>251.642</v>
+        <v>171.184</v>
       </c>
       <c r="J4" s="1">
-        <v>20139.3722</v>
+        <v>20058.89</v>
       </c>
       <c r="K4" s="1">
-        <v>19748.358</v>
+        <v>19828.816</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1559</v>
+        <v>13.183</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10251.642</v>
+        <v>-10171.184</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.008</v>
+        <v>-0.009900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>13.3991</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E5" s="1">
-        <v>2274.8928</v>
+        <v>2270.2941</v>
       </c>
       <c r="F5" s="1">
-        <v>732.8466</v>
+        <v>743.4733</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30481.5161</v>
+        <v>30359.0537</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30481.5161</v>
+        <v>30359.0537</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.1874</v>
+        <v>13.2141</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>540.3989</v>
+        <v>541.4813</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9279.0862</v>
+        <v>-9440.316500000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0114</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.5985</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E6" s="1">
-        <v>3007.7394</v>
+        <v>3013.7674</v>
       </c>
       <c r="F6" s="1">
-        <v>706.0898</v>
+        <v>707.5051999999999</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40900.7445</v>
+        <v>40900.741</v>
       </c>
       <c r="I6" s="1">
-        <v>720.9138</v>
+        <v>559.6835</v>
       </c>
       <c r="J6" s="1">
-        <v>41621.6583</v>
+        <v>41460.4245</v>
       </c>
       <c r="K6" s="1">
-        <v>39819.4851</v>
+        <v>39981.7978</v>
       </c>
       <c r="L6" s="1">
-        <v>13.239</v>
+        <v>13.2664</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9601.7618</v>
+        <v>-9640.2536</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0282</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.6955</v>
       </c>
       <c r="C7" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D7" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E7" s="1">
-        <v>3713.8292</v>
+        <v>3721.2726</v>
       </c>
       <c r="F7" s="1">
-        <v>722.3008</v>
+        <v>723.7504</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50862.7477</v>
+        <v>50862.7254</v>
       </c>
       <c r="I7" s="1">
-        <v>1119.152</v>
+        <v>919.4299999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>51981.8997</v>
+        <v>51782.1554</v>
       </c>
       <c r="K7" s="1">
-        <v>49421.2469</v>
+        <v>49622.0514</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3074</v>
+        <v>13.3347</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9892.2711</v>
+        <v>-9931.954900000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.007</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>13.3398</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E8" s="1">
-        <v>4436.13</v>
+        <v>4445.023</v>
       </c>
       <c r="F8" s="1">
-        <v>841.6079</v>
+        <v>822.0159</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59177.0873</v>
+        <v>59177.0356</v>
       </c>
       <c r="I8" s="1">
-        <v>1226.8809</v>
+        <v>987.4751</v>
       </c>
       <c r="J8" s="1">
-        <v>60403.9682</v>
+        <v>60164.5107</v>
       </c>
       <c r="K8" s="1">
-        <v>59313.518</v>
+        <v>59554.0062</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3706</v>
+        <v>13.3979</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1002.7339</v>
+        <v>1004.7436</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10224.147</v>
+        <v>-9982.7315</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0255</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>12.8469</v>
       </c>
       <c r="C9" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D9" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E9" s="1">
-        <v>5277.7379</v>
+        <v>5267.0389</v>
       </c>
       <c r="F9" s="1">
-        <v>856.4505</v>
+        <v>854.8967</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>67802.57120000001</v>
+        <v>67529.7586</v>
       </c>
       <c r="I9" s="1">
-        <v>1002.7339</v>
+        <v>1004.7436</v>
       </c>
       <c r="J9" s="1">
-        <v>68805.3051</v>
+        <v>68534.5022</v>
       </c>
       <c r="K9" s="1">
-        <v>70540.3989</v>
+        <v>70541.4813</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3657</v>
+        <v>13.393</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11002.7339</v>
+        <v>-11004.7436</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0227</v>
+        <v>-0.0232</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.129</v>
       </c>
       <c r="C10" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D10" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E10" s="1">
-        <v>6134.1884</v>
+        <v>6121.9356</v>
       </c>
       <c r="F10" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>80535.7597</v>
+        <v>80213.8854</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80535.7597</v>
+        <v>80213.8854</v>
       </c>
       <c r="K10" s="1">
-        <v>81543.13280000001</v>
+        <v>81546.2249</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2932</v>
+        <v>13.3203</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.022</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>12.716</v>
       </c>
       <c r="C11" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D11" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E11" s="1">
-        <v>6895.861</v>
+        <v>6882.0855</v>
       </c>
       <c r="F11" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>87687.769</v>
+        <v>87337.7941</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87687.769</v>
+        <v>87337.7941</v>
       </c>
       <c r="K11" s="1">
-        <v>91543.13280000001</v>
+        <v>91546.2249</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2751</v>
+        <v>13.3021</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1656.2309</v>
+        <v>1652.9226</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8343.7691</v>
+        <v>-8347.0774</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0315</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>12.4613</v>
       </c>
       <c r="C12" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D12" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E12" s="1">
-        <v>7682.2719</v>
+        <v>7666.9224</v>
       </c>
       <c r="F12" s="1">
-        <v>935.3945</v>
+        <v>933.2567</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>95731.0944</v>
+        <v>95348.9142</v>
       </c>
       <c r="I12" s="1">
-        <v>1656.2309</v>
+        <v>1652.9226</v>
       </c>
       <c r="J12" s="1">
-        <v>97387.3253</v>
+        <v>97001.8368</v>
       </c>
       <c r="K12" s="1">
-        <v>101543.1328</v>
+        <v>101546.2249</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2179</v>
+        <v>13.2447</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11656.2309</v>
+        <v>-11652.9226</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0031</v>
+        <v>-0.0035</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>12.6545</v>
       </c>
       <c r="C13" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D13" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E13" s="1">
-        <v>8617.666300000001</v>
+        <v>8600.179099999999</v>
       </c>
       <c r="F13" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>109052.2584</v>
+        <v>108613.3818</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>109052.2584</v>
+        <v>108613.3818</v>
       </c>
       <c r="K13" s="1">
-        <v>113199.3637</v>
+        <v>113199.1475</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1357</v>
+        <v>13.1624</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0155</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>12.2345</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E14" s="1">
-        <v>9407.898999999999</v>
+        <v>9388.828799999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9407.898999999999</v>
+        <v>-9388.828799999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115100.9408</v>
+        <v>114637.6002</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>115100.9408</v>
+        <v>114637.6002</v>
       </c>
       <c r="K14" s="1">
-        <v>123199.3637</v>
+        <v>123199.1475</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0953</v>
+        <v>13.1219</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2326.7699</v>
+        <v>2322.0484</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117427.7107</v>
+        <v>116959.6486</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0332</v>
+        <v>-0.0335</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>12.9657</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.3568</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E3" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="F3" s="1">
-        <v>733.5857</v>
+        <v>738.1435</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10301.642</v>
+        <v>10260.474</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10301.642</v>
+        <v>10260.474</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9798.358</v>
+        <v>-9879.0167</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0302</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.2487</v>
       </c>
       <c r="C4" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D4" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E4" s="1">
-        <v>1504.8515</v>
+        <v>1507.8657</v>
       </c>
       <c r="F4" s="1">
-        <v>770.0108</v>
+        <v>762.3978</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19937.3256</v>
+        <v>19937.3013</v>
       </c>
       <c r="I4" s="1">
-        <v>201.642</v>
+        <v>120.9833</v>
       </c>
       <c r="J4" s="1">
-        <v>20138.9676</v>
+        <v>20058.2846</v>
       </c>
       <c r="K4" s="1">
-        <v>19798.358</v>
+        <v>19879.0167</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1564</v>
+        <v>13.1835</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10201.642</v>
+        <v>-10120.9833</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.008</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>13.3991</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E5" s="1">
-        <v>2274.8623</v>
+        <v>2270.2635</v>
       </c>
       <c r="F5" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30481.1069</v>
+        <v>30358.6441</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30481.1069</v>
+        <v>30358.6441</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.1876</v>
+        <v>13.2143</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>541.7465</v>
+        <v>542.8316</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9458.253500000001</v>
+        <v>-9457.1684</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0114</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.5985</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E6" s="1">
-        <v>3021.181</v>
+        <v>3015.0925</v>
       </c>
       <c r="F6" s="1">
-        <v>729.9717000000001</v>
+        <v>743.5784</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41083.5304</v>
+        <v>40918.7246</v>
       </c>
       <c r="I6" s="1">
-        <v>541.7465</v>
+        <v>542.8316</v>
       </c>
       <c r="J6" s="1">
-        <v>41625.2769</v>
+        <v>41461.5563</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2399</v>
+        <v>13.2666</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9926.519700000001</v>
+        <v>-10131.7761</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0283</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.6955</v>
       </c>
       <c r="C7" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D7" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E7" s="1">
-        <v>3751.1527</v>
+        <v>3758.6709</v>
       </c>
       <c r="F7" s="1">
-        <v>740.8447</v>
+        <v>742.3315</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51373.9119</v>
+        <v>51373.8894</v>
       </c>
       <c r="I7" s="1">
-        <v>615.2268</v>
+        <v>411.0555</v>
       </c>
       <c r="J7" s="1">
-        <v>51989.1387</v>
+        <v>51784.945</v>
       </c>
       <c r="K7" s="1">
-        <v>49926.5197</v>
+        <v>50131.7761</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3096</v>
+        <v>13.3376</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10146.2387</v>
+        <v>-10186.9409</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.007</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>13.3398</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E8" s="1">
-        <v>4491.9974</v>
+        <v>4501.0024</v>
       </c>
       <c r="F8" s="1">
-        <v>784.7935</v>
+        <v>764.9059</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59922.3471</v>
+        <v>59922.2948</v>
       </c>
       <c r="I8" s="1">
-        <v>468.9881</v>
+        <v>224.1146</v>
       </c>
       <c r="J8" s="1">
-        <v>60391.3352</v>
+        <v>60146.4093</v>
       </c>
       <c r="K8" s="1">
-        <v>60072.7584</v>
+        <v>60318.717</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3733</v>
+        <v>13.4012</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1012.8112</v>
+        <v>1014.8411</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9456.1769</v>
+        <v>-9209.273499999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0258</v>
+        <v>-0.0265</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>12.8469</v>
       </c>
       <c r="C9" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D9" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E9" s="1">
-        <v>5276.7909</v>
+        <v>5265.9083</v>
       </c>
       <c r="F9" s="1">
-        <v>857.2349</v>
+        <v>855.6811</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>67790.405</v>
+        <v>67515.2631</v>
       </c>
       <c r="I9" s="1">
-        <v>1012.8112</v>
+        <v>1014.8411</v>
       </c>
       <c r="J9" s="1">
-        <v>68803.2162</v>
+        <v>68530.1042</v>
       </c>
       <c r="K9" s="1">
-        <v>70541.74649999999</v>
+        <v>70542.8316</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3683</v>
+        <v>13.3961</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11012.8112</v>
+        <v>-11014.8411</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0226</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.129</v>
       </c>
       <c r="C10" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D10" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E10" s="1">
-        <v>6134.0258</v>
+        <v>6121.5894</v>
       </c>
       <c r="F10" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80533.6249</v>
+        <v>80209.3496</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80533.6249</v>
+        <v>80209.3496</v>
       </c>
       <c r="K10" s="1">
-        <v>81554.5578</v>
+        <v>81557.6728</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2954</v>
+        <v>13.323</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.022</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>12.716</v>
       </c>
       <c r="C11" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D11" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E11" s="1">
-        <v>6895.6984</v>
+        <v>6881.7393</v>
       </c>
       <c r="F11" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>87685.70140000001</v>
+        <v>87333.401</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87685.70140000001</v>
+        <v>87333.401</v>
       </c>
       <c r="K11" s="1">
-        <v>91554.5578</v>
+        <v>91557.6728</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2771</v>
+        <v>13.3044</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1656.187</v>
+        <v>1652.8291</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8343.813</v>
+        <v>-8347.170899999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0315</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>12.4613</v>
       </c>
       <c r="C12" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D12" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E12" s="1">
-        <v>7682.1093</v>
+        <v>7666.5763</v>
       </c>
       <c r="F12" s="1">
-        <v>935.3909</v>
+        <v>933.2492</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>95729.06819999999</v>
+        <v>95344.6091</v>
       </c>
       <c r="I12" s="1">
-        <v>1656.187</v>
+        <v>1652.8291</v>
       </c>
       <c r="J12" s="1">
-        <v>97385.2552</v>
+        <v>96997.4382</v>
       </c>
       <c r="K12" s="1">
-        <v>101554.5578</v>
+        <v>101557.6728</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2196</v>
+        <v>13.2468</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11656.187</v>
+        <v>-11652.8291</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0031</v>
+        <v>-0.0035</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>12.6545</v>
       </c>
       <c r="C13" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D13" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E13" s="1">
-        <v>8617.5002</v>
+        <v>8599.8254</v>
       </c>
       <c r="F13" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>109050.1562</v>
+        <v>108608.9155</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>109050.1562</v>
+        <v>108608.9155</v>
       </c>
       <c r="K13" s="1">
-        <v>113210.7447</v>
+        <v>113210.5019</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1373</v>
+        <v>13.1643</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0155</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>12.2345</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E14" s="1">
-        <v>9407.732900000001</v>
+        <v>9388.475200000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9407.732900000001</v>
+        <v>-9388.475200000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115098.9084</v>
+        <v>114633.2821</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>115098.9084</v>
+        <v>114633.2821</v>
       </c>
       <c r="K14" s="1">
-        <v>123210.7447</v>
+        <v>123210.5019</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0968</v>
+        <v>13.1236</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2326.7251</v>
+        <v>2321.9529</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117425.6334</v>
+        <v>116955.235</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0332</v>
+        <v>-0.0335</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.9657</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.3568</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E3" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="F3" s="1">
-        <v>737.3291</v>
+        <v>741.8944</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10301.642</v>
+        <v>10260.474</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10301.642</v>
+        <v>10260.474</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9848.358</v>
+        <v>-9929.2174</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0302</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.2487</v>
       </c>
       <c r="C4" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D4" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E4" s="1">
-        <v>1508.5949</v>
+        <v>1511.6166</v>
       </c>
       <c r="F4" s="1">
-        <v>766.2368</v>
+        <v>758.6163</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19986.9209</v>
+        <v>19986.8966</v>
       </c>
       <c r="I4" s="1">
-        <v>151.642</v>
+        <v>70.7826</v>
       </c>
       <c r="J4" s="1">
-        <v>20138.5629</v>
+        <v>20057.6792</v>
       </c>
       <c r="K4" s="1">
-        <v>19848.358</v>
+        <v>19929.2174</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1569</v>
+        <v>13.184</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10151.642</v>
+        <v>-10070.7826</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.008</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>13.3991</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E5" s="1">
-        <v>2274.8317</v>
+        <v>2270.2328</v>
       </c>
       <c r="F5" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30480.6976</v>
+        <v>30358.2345</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30480.6976</v>
+        <v>30358.2345</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.1878</v>
+        <v>13.2145</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>543.0942</v>
+        <v>544.182</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9456.9058</v>
+        <v>-9455.817999999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0114</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.5985</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E6" s="1">
-        <v>3021.1505</v>
+        <v>3015.0619</v>
       </c>
       <c r="F6" s="1">
-        <v>767.699</v>
+        <v>773.8452</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41083.115</v>
+        <v>40918.309</v>
       </c>
       <c r="I6" s="1">
-        <v>543.0942</v>
+        <v>544.182</v>
       </c>
       <c r="J6" s="1">
-        <v>41626.2092</v>
+        <v>41462.4909</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.24</v>
+        <v>13.2667</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10439.5542</v>
+        <v>-10544.182</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0283</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.6955</v>
       </c>
       <c r="C7" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D7" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E7" s="1">
-        <v>3788.8495</v>
+        <v>3788.907</v>
       </c>
       <c r="F7" s="1">
-        <v>737.727</v>
+        <v>728.7089</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51890.1877</v>
+        <v>51787.16</v>
       </c>
       <c r="I7" s="1">
-        <v>103.5399</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51993.7276</v>
+        <v>51787.16</v>
       </c>
       <c r="K7" s="1">
-        <v>50439.5542</v>
+        <v>50544.182</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3126</v>
+        <v>13.34</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10103.5399</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0071</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>13.3398</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E8" s="1">
-        <v>4526.5764</v>
+        <v>4517.616</v>
       </c>
       <c r="F8" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60383.6243</v>
+        <v>60143.473</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60383.6243</v>
+        <v>60143.473</v>
       </c>
       <c r="K8" s="1">
-        <v>60543.0942</v>
+        <v>60544.182</v>
       </c>
       <c r="L8" s="1">
-        <v>13.375</v>
+        <v>13.4018</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1022.9894</v>
+        <v>1023.0049</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8977.0106</v>
+        <v>-8976.9951</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.026</v>
+        <v>-0.0266</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>12.8469</v>
       </c>
       <c r="C9" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D9" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E9" s="1">
-        <v>5276.2129</v>
+        <v>5265.755</v>
       </c>
       <c r="F9" s="1">
-        <v>858.0272</v>
+        <v>856.3153</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>67782.97900000001</v>
+        <v>67513.29760000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1022.9894</v>
+        <v>1023.0049</v>
       </c>
       <c r="J9" s="1">
-        <v>68805.9684</v>
+        <v>68536.30250000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70543.09420000001</v>
+        <v>70544.182</v>
       </c>
       <c r="L9" s="1">
-        <v>13.37</v>
+        <v>13.3968</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11022.9894</v>
+        <v>-11023.0049</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0224</v>
+        <v>-0.0229</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.129</v>
       </c>
       <c r="C10" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D10" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E10" s="1">
-        <v>6134.24</v>
+        <v>6122.0703</v>
       </c>
       <c r="F10" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>80536.4375</v>
+        <v>80215.65059999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80536.4375</v>
+        <v>80215.65059999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81566.08349999999</v>
+        <v>81567.1869</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2969</v>
+        <v>13.3235</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.022</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>12.716</v>
       </c>
       <c r="C11" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D11" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E11" s="1">
-        <v>6895.9127</v>
+        <v>6882.2202</v>
       </c>
       <c r="F11" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>87688.4255</v>
+        <v>87339.50380000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87688.4255</v>
+        <v>87339.50380000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91566.08349999999</v>
+        <v>91567.1869</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2783</v>
+        <v>13.3049</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1656.2448</v>
+        <v>1652.959</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8343.7552</v>
+        <v>-8347.040999999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0315</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>12.4613</v>
       </c>
       <c r="C12" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D12" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E12" s="1">
-        <v>7682.3235</v>
+        <v>7667.0572</v>
       </c>
       <c r="F12" s="1">
-        <v>935.3955999999999</v>
+        <v>933.2596</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>95731.7378</v>
+        <v>95350.5897</v>
       </c>
       <c r="I12" s="1">
-        <v>1656.2448</v>
+        <v>1652.959</v>
       </c>
       <c r="J12" s="1">
-        <v>97387.9826</v>
+        <v>97003.5487</v>
       </c>
       <c r="K12" s="1">
-        <v>101566.0835</v>
+        <v>101567.1869</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2208</v>
+        <v>13.2472</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11656.2448</v>
+        <v>-11652.959</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0031</v>
+        <v>-0.0035</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>12.6545</v>
       </c>
       <c r="C13" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D13" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E13" s="1">
-        <v>8617.7191</v>
+        <v>8600.316699999999</v>
       </c>
       <c r="F13" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>109052.9259</v>
+        <v>108615.1201</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>109052.9259</v>
+        <v>108615.1201</v>
       </c>
       <c r="K13" s="1">
-        <v>113222.3283</v>
+        <v>113220.1458</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1383</v>
+        <v>13.1646</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0155</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>12.2345</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E14" s="1">
-        <v>9407.951800000001</v>
+        <v>9388.9665</v>
       </c>
       <c r="F14" s="1">
-        <v>-9407.951800000001</v>
+        <v>-9388.9665</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115101.5861</v>
+        <v>114639.2808</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>115101.5861</v>
+        <v>114639.2808</v>
       </c>
       <c r="K14" s="1">
-        <v>123222.3283</v>
+        <v>123220.1458</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0977</v>
+        <v>13.1239</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2326.7841</v>
+        <v>2322.0855</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117428.3703</v>
+        <v>116961.3663</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0332</v>
+        <v>-0.0335</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0961</v>
+        <v>13.1224</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0907</v>
+        <v>13.1195</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0953</v>
+        <v>13.1219</v>
       </c>
       <c r="F3" s="1">
-        <v>13.0968</v>
+        <v>13.1236</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0977</v>
+        <v>13.1239</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0547</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0098</v>
+        <v>-0.0223</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0094</v>
+        <v>-0.0221</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0098</v>
+        <v>-0.0222</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0098</v>
+        <v>-0.0223</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0097</v>
+        <v>-0.0222</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0799</v>
       </c>
       <c r="C5" s="3">
-        <v>0.07679999999999999</v>
+        <v>0.0752</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0767</v>
+        <v>0.0752</v>
       </c>
       <c r="E5" s="3">
-        <v>0.077</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0771</v>
+        <v>0.0755</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0771</v>
+        <v>0.0755</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.9391</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3922</v>
+        <v>-0.5669</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.3879</v>
+        <v>-0.5637</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.3909</v>
+        <v>-0.5641</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.3906</v>
+        <v>-0.5649</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.3899</v>
+        <v>-0.5637</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0402</v>
+        <v>-0.0475</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0393</v>
+        <v>-0.0467</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0396</v>
+        <v>-0.0468</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0396</v>
+        <v>-0.0467</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0395</v>
+        <v>-0.0466</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5499.8578</v>
+        <v>5488.7531</v>
       </c>
       <c r="D8" s="1">
-        <v>5515.7695</v>
+        <v>5510.1764</v>
       </c>
       <c r="E8" s="1">
-        <v>5526.1336</v>
+        <v>5521.1959</v>
       </c>
       <c r="F8" s="1">
-        <v>5537.4698</v>
+        <v>5532.4548</v>
       </c>
       <c r="G8" s="1">
-        <v>5549.1125</v>
+        <v>5542.2314</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P63_KFSDIV.xlsx
+++ b/output/1Y_P63_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.9657</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.3568</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.2487</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3991</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5985</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.6955</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3398</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.8469</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.129</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.716</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.4613</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.6545</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2345</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.9657</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.3568</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.2487</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3991</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5985</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.6955</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3398</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.8469</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.129</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.716</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.4613</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.6545</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2345</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.9657</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.3568</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.2487</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3991</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5985</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.6955</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3398</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.8469</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.129</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.716</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.4613</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.6545</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2345</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.9657</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.3568</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.2487</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3991</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5985</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.6955</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3398</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.8469</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.129</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.716</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.4613</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.6545</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2345</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.9657</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.3568</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.2487</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3991</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5985</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.6955</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3398</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.8469</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.129</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.716</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.4613</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.6545</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2345</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6459.5496</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9306</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9308999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9306</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9305</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
